--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bdnf-Sort1.xlsx
@@ -546,10 +546,10 @@
         <v>1.013966</v>
       </c>
       <c r="I2">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J2">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N2">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O2">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P2">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q2">
-        <v>0.2436796890066667</v>
+        <v>0.2222205632342222</v>
       </c>
       <c r="R2">
-        <v>2.19311720106</v>
+        <v>1.999985069108</v>
       </c>
       <c r="S2">
-        <v>0.01970870366085306</v>
+        <v>0.01975208294206336</v>
       </c>
       <c r="T2">
-        <v>0.01970870366085306</v>
+        <v>0.01975208294206336</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>1.013966</v>
       </c>
       <c r="I3">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J3">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.554173</v>
       </c>
       <c r="O3">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P3">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q3">
-        <v>0.6257491755686667</v>
+        <v>0.6257491755686666</v>
       </c>
       <c r="R3">
-        <v>5.631742580118</v>
+        <v>5.631742580117999</v>
       </c>
       <c r="S3">
-        <v>0.0506103119122438</v>
+        <v>0.05561973850157462</v>
       </c>
       <c r="T3">
-        <v>0.05061031191224381</v>
+        <v>0.05561973850157463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>1.013966</v>
       </c>
       <c r="I4">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J4">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N4">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O4">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P4">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q4">
-        <v>2.982561948971778</v>
+        <v>1.815090171614222</v>
       </c>
       <c r="R4">
-        <v>26.843057540746</v>
+        <v>16.335811544528</v>
       </c>
       <c r="S4">
-        <v>0.2412282691349501</v>
+        <v>0.1613343567096445</v>
       </c>
       <c r="T4">
-        <v>0.2412282691349501</v>
+        <v>0.1613343567096445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>1.013966</v>
       </c>
       <c r="I5">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J5">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N5">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O5">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P5">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q5">
-        <v>0.5780130082433333</v>
+        <v>0.6087816938504444</v>
       </c>
       <c r="R5">
-        <v>5.202117074189999</v>
+        <v>5.479035244654</v>
       </c>
       <c r="S5">
-        <v>0.04674943216656195</v>
+        <v>0.05411158326454994</v>
       </c>
       <c r="T5">
-        <v>0.04674943216656196</v>
+        <v>0.05411158326454994</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>1.013966</v>
       </c>
       <c r="I6">
-        <v>0.5939410127678169</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="J6">
-        <v>0.593941012767817</v>
+        <v>0.4664623486936776</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N6">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O6">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P6">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q6">
-        <v>2.913521342020445</v>
+        <v>1.976087242442667</v>
       </c>
       <c r="R6">
-        <v>26.221692078184</v>
+        <v>17.784785181984</v>
       </c>
       <c r="S6">
-        <v>0.235644295893208</v>
+        <v>0.1756445872758451</v>
       </c>
       <c r="T6">
-        <v>0.235644295893208</v>
+        <v>0.1756445872758452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H7">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I7">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J7">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.72097</v>
+        <v>0.6574793333333333</v>
       </c>
       <c r="N7">
-        <v>2.16291</v>
+        <v>1.972438</v>
       </c>
       <c r="O7">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670402</v>
       </c>
       <c r="P7">
-        <v>0.03318293102712134</v>
+        <v>0.04234443143670403</v>
       </c>
       <c r="Q7">
-        <v>0.1665962201633333</v>
+        <v>0.2541749354733333</v>
       </c>
       <c r="R7">
-        <v>1.49936598147</v>
+        <v>2.28757441926</v>
       </c>
       <c r="S7">
-        <v>0.01347422736626827</v>
+        <v>0.02259234849464066</v>
       </c>
       <c r="T7">
-        <v>0.01347422736626828</v>
+        <v>0.02259234849464067</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H8">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I8">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J8">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>5.554173</v>
       </c>
       <c r="O8">
-        <v>0.08521100719479757</v>
+        <v>0.1192373589365509</v>
       </c>
       <c r="P8">
-        <v>0.08521100719479757</v>
+        <v>0.119237358936551</v>
       </c>
       <c r="Q8">
-        <v>0.4278052382823334</v>
+        <v>0.7157292466899999</v>
       </c>
       <c r="R8">
-        <v>3.850247144541</v>
+        <v>6.441563220209999</v>
       </c>
       <c r="S8">
-        <v>0.03460069528255377</v>
+        <v>0.06361762043497632</v>
       </c>
       <c r="T8">
-        <v>0.03460069528255377</v>
+        <v>0.06361762043497633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H9">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I9">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J9">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.824443666666667</v>
+        <v>5.370269333333333</v>
       </c>
       <c r="N9">
-        <v>26.473331</v>
+        <v>16.110808</v>
       </c>
       <c r="O9">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="P9">
-        <v>0.4061485298191572</v>
+        <v>0.3458679080132824</v>
       </c>
       <c r="Q9">
-        <v>2.039084788425222</v>
+        <v>2.076092421573333</v>
       </c>
       <c r="R9">
-        <v>18.351763095827</v>
+        <v>18.68483179416</v>
       </c>
       <c r="S9">
-        <v>0.164920260684207</v>
+        <v>0.1845335513036378</v>
       </c>
       <c r="T9">
-        <v>0.1649202606842071</v>
+        <v>0.1845335513036378</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H10">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I10">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J10">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.710155</v>
+        <v>1.801189666666667</v>
       </c>
       <c r="N10">
-        <v>5.130465</v>
+        <v>5.403569</v>
       </c>
       <c r="O10">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="P10">
-        <v>0.07871056411596418</v>
+        <v>0.1160041821512257</v>
       </c>
       <c r="Q10">
-        <v>0.3951695062116667</v>
+        <v>0.6963219132366667</v>
       </c>
       <c r="R10">
-        <v>3.556525555905</v>
+        <v>6.26689721913</v>
       </c>
       <c r="S10">
-        <v>0.03196113194940222</v>
+        <v>0.06189259888667577</v>
       </c>
       <c r="T10">
-        <v>0.03196113194940223</v>
+        <v>0.06189259888667577</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.2310723333333333</v>
+        <v>0.38659</v>
       </c>
       <c r="H11">
-        <v>0.693217</v>
+        <v>1.15977</v>
       </c>
       <c r="I11">
-        <v>0.406058987232183</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="J11">
-        <v>0.4060589872321831</v>
+        <v>0.5335376513063224</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.620174666666667</v>
+        <v>5.846608</v>
       </c>
       <c r="N11">
-        <v>25.860524</v>
+        <v>17.539824</v>
       </c>
       <c r="O11">
-        <v>0.3967469678429597</v>
+        <v>0.3765461194622369</v>
       </c>
       <c r="P11">
-        <v>0.3967469678429598</v>
+        <v>0.376546119462237</v>
       </c>
       <c r="Q11">
-        <v>1.991883873967556</v>
+        <v>2.26024018672</v>
       </c>
       <c r="R11">
-        <v>17.926954865708</v>
+        <v>20.34216168048</v>
       </c>
       <c r="S11">
-        <v>0.1611026719497517</v>
+        <v>0.2009015321863918</v>
       </c>
       <c r="T11">
-        <v>0.1611026719497518</v>
+        <v>0.2009015321863918</v>
       </c>
     </row>
   </sheetData>
